--- a/数据库/教师名单.xlsx
+++ b/数据库/教师名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\_Project\course-analysis\数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D4EFBD-0406-451E-ABAD-905017B8E459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E96DC13-6396-42C8-9B9A-6592C52F751B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="960" windowWidth="16710" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1770" windowWidth="16710" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +219,14 @@
   </si>
   <si>
     <t>苏靖枫</t>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,268 +635,268 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
